--- a/biology/Médecine/Surdité_provoquée_par_le_bruit_(maladie_professionnelle)/Surdité_provoquée_par_le_bruit_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Surdité_provoquée_par_le_bruit_(maladie_professionnelle)/Surdité_provoquée_par_le_bruit_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surdit%C3%A9_provoqu%C3%A9e_par_le_bruit_(maladie_professionnelle)</t>
+          <t>Surdité_provoquée_par_le_bruit_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une surdité provoquée par le bruit soit reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surdit%C3%A9_provoqu%C3%A9e_par_le_bruit_(maladie_professionnelle)</t>
+          <t>Surdité_provoquée_par_le_bruit_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Surdité_provoquée_par_le_bruit_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_provoqu%C3%A9e_par_le_bruit_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
